--- a/docs/Delaware Hocking mapping.xlsx
+++ b/docs/Delaware Hocking mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snayc\Documents\CSCC\Data-Analytics-2019-Group-4\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chads\Documents\CSCC\Data-Analytics-2019-Group-4-v2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E02F381-F576-484F-A33A-1C7964696E13}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A49611F-491F-4796-A581-2A80C7441A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{41D68BBF-A8C3-464A-A483-EC38D9A61C89}"/>
+    <workbookView xWindow="22815" yWindow="3180" windowWidth="27420" windowHeight="15990" xr2:uid="{41D68BBF-A8C3-464A-A483-EC38D9A61C89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,62 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
-  <si>
-    <t>ParcelNumber</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="156">
   <si>
     <t>LegalDescription</t>
   </si>
   <si>
-    <t>StreetAddress</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>ZipCode</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>LandUseCode</t>
   </si>
   <si>
     <t>Acres</t>
   </si>
   <si>
-    <t>FrontFootage</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>TaxSetCode</t>
-  </si>
-  <si>
-    <t>SchoolDistrict</t>
-  </si>
-  <si>
-    <t>MarketLandValue</t>
-  </si>
-  <si>
-    <t>MarketImprovementValue</t>
-  </si>
-  <si>
-    <t>CAUV</t>
-  </si>
-  <si>
-    <t>MarketValue</t>
-  </si>
-  <si>
-    <t>MarketTotal</t>
-  </si>
-  <si>
     <t>SaleDate</t>
   </si>
   <si>
@@ -90,15 +48,9 @@
     <t>Conveyance</t>
   </si>
   <si>
-    <t>HomesteadFlag</t>
-  </si>
-  <si>
     <t>LandValue</t>
   </si>
   <si>
-    <t>ImprovementValue</t>
-  </si>
-  <si>
     <t>SpecAssessment</t>
   </si>
   <si>
@@ -123,9 +75,6 @@
     <t>Township</t>
   </si>
   <si>
-    <t>SaleNumber</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -153,21 +102,12 @@
     <t>BasementSqft</t>
   </si>
   <si>
-    <t>FinishedBasement</t>
-  </si>
-  <si>
     <t>Air</t>
   </si>
   <si>
     <t>GarageSqft</t>
   </si>
   <si>
-    <t>GarageType</t>
-  </si>
-  <si>
-    <t>HeatType</t>
-  </si>
-  <si>
     <t>Roof</t>
   </si>
   <si>
@@ -177,9 +117,6 @@
     <t>Rooms</t>
   </si>
   <si>
-    <t>Bathrooms</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
@@ -192,14 +129,377 @@
     <t>BldgValue</t>
   </si>
   <si>
-    <t>PropertyCard</t>
+    <t>mpropertyNumber</t>
+  </si>
+  <si>
+    <t>mmapNumber</t>
+  </si>
+  <si>
+    <t>mcamaId</t>
+  </si>
+  <si>
+    <t>CardCount</t>
+  </si>
+  <si>
+    <t>NeighborhoodCode</t>
+  </si>
+  <si>
+    <t>mlegalDescription</t>
+  </si>
+  <si>
+    <t>mlocStrDir</t>
+  </si>
+  <si>
+    <t>mlocStrNo</t>
+  </si>
+  <si>
+    <t>mlocStrNo2</t>
+  </si>
+  <si>
+    <t>mlocStrName</t>
+  </si>
+  <si>
+    <t>mlocStrSuffix</t>
+  </si>
+  <si>
+    <t>mlocStrSuffixDir</t>
+  </si>
+  <si>
+    <t>msecondaryAddress</t>
+  </si>
+  <si>
+    <t>mlocCity</t>
+  </si>
+  <si>
+    <t>mlocState</t>
+  </si>
+  <si>
+    <t>mlocZipCode</t>
+  </si>
+  <si>
+    <t>mlocDescription</t>
+  </si>
+  <si>
+    <t>mClassificationId</t>
+  </si>
+  <si>
+    <t>macres</t>
+  </si>
+  <si>
+    <t>mfrontfootage</t>
+  </si>
+  <si>
+    <t>mdeedVolume</t>
+  </si>
+  <si>
+    <t>mdeedPage</t>
+  </si>
+  <si>
+    <t>Par_Deleted</t>
+  </si>
+  <si>
+    <t>DeededOwner</t>
+  </si>
+  <si>
+    <t>mlot</t>
+  </si>
+  <si>
+    <t>msublot</t>
+  </si>
+  <si>
+    <t>OwnName</t>
+  </si>
+  <si>
+    <t>OwnFirstName</t>
+  </si>
+  <si>
+    <t>OwnMiddleInitial</t>
+  </si>
+  <si>
+    <t>OwnLastName</t>
+  </si>
+  <si>
+    <t>OwnNameSuffix</t>
+  </si>
+  <si>
+    <t>OwnBusiness</t>
+  </si>
+  <si>
+    <t>OwnStreetName</t>
+  </si>
+  <si>
+    <t>OwnStreetNumber</t>
+  </si>
+  <si>
+    <t>OwnStreetDirection</t>
+  </si>
+  <si>
+    <t>OwnStreetSuffix</t>
+  </si>
+  <si>
+    <t>OwnSufDir</t>
+  </si>
+  <si>
+    <t>OwnSecondaryAddress</t>
+  </si>
+  <si>
+    <t>OwnCity</t>
+  </si>
+  <si>
+    <t>OwnState</t>
+  </si>
+  <si>
+    <t>OwnZipcode</t>
+  </si>
+  <si>
+    <t>OwnCountry</t>
+  </si>
+  <si>
+    <t>OwnAttentionline</t>
+  </si>
+  <si>
+    <t>TaxpName</t>
+  </si>
+  <si>
+    <t>TaxpFirstName</t>
+  </si>
+  <si>
+    <t>TaxpMiddleInitial</t>
+  </si>
+  <si>
+    <t>TaxpLastName</t>
+  </si>
+  <si>
+    <t>TaxpNameSuffix</t>
+  </si>
+  <si>
+    <t>TaxpBusiness</t>
+  </si>
+  <si>
+    <t>TaxpStreetName</t>
+  </si>
+  <si>
+    <t>TaxpStreetNumber</t>
+  </si>
+  <si>
+    <t>TaxpStreetDirection</t>
+  </si>
+  <si>
+    <t>TaxpStreetSuffix</t>
+  </si>
+  <si>
+    <t>TaxpStreetSuffixDir</t>
+  </si>
+  <si>
+    <t>TaxpSecondaryAddress</t>
+  </si>
+  <si>
+    <t>TaxpCity</t>
+  </si>
+  <si>
+    <t>TaxpState</t>
+  </si>
+  <si>
+    <t>TaxpZipcode</t>
+  </si>
+  <si>
+    <t>TaxpCountry</t>
+  </si>
+  <si>
+    <t>TaxpAttentionline</t>
+  </si>
+  <si>
+    <t>Spec_Flag</t>
+  </si>
+  <si>
+    <t>mtaxsetCode</t>
+  </si>
+  <si>
+    <t>mstateSchoolcode</t>
+  </si>
+  <si>
+    <t>mvaluedBy</t>
+  </si>
+  <si>
+    <t>MKT_Land_Value</t>
+  </si>
+  <si>
+    <t>MKT_Impr_Value</t>
+  </si>
+  <si>
+    <t>CAUV_Value</t>
+  </si>
+  <si>
+    <t>MKT_Total_Value</t>
+  </si>
+  <si>
+    <t>MKT_Tot_Total</t>
+  </si>
+  <si>
+    <t>ValidSale</t>
+  </si>
+  <si>
+    <t>SaleAmount</t>
+  </si>
+  <si>
+    <t>NumberOfPropertiesInSale</t>
+  </si>
+  <si>
+    <t>InstumentType</t>
+  </si>
+  <si>
+    <t>InstumentDate</t>
+  </si>
+  <si>
+    <t>DeedNumber</t>
+  </si>
+  <si>
+    <t>Hmstd_Flag</t>
+  </si>
+  <si>
+    <t>Foreclosed</t>
+  </si>
+  <si>
+    <t>NewConstruction</t>
+  </si>
+  <si>
+    <t>Reduction25</t>
+  </si>
+  <si>
+    <t>BORflag</t>
+  </si>
+  <si>
+    <t>DividedProperty</t>
+  </si>
+  <si>
+    <t>LandVal</t>
+  </si>
+  <si>
+    <t>ImproveVal</t>
+  </si>
+  <si>
+    <t>TaxesPaid</t>
+  </si>
+  <si>
+    <t>Delinquent</t>
+  </si>
+  <si>
+    <t>mroutingNumber</t>
+  </si>
+  <si>
+    <t>Zoning</t>
+  </si>
+  <si>
+    <t>Parcel_Type</t>
+  </si>
+  <si>
+    <t>ForeclosureStep</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>activeYear</t>
+  </si>
+  <si>
+    <t>LenderId</t>
+  </si>
+  <si>
+    <t>TaxLienStatus</t>
+  </si>
+  <si>
+    <t>OwnOtherInfo</t>
+  </si>
+  <si>
+    <t>mFORCmessageid</t>
+  </si>
+  <si>
+    <t>msubdivision</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Franklin (Compare)</t>
+  </si>
+  <si>
+    <t>School District</t>
+  </si>
+  <si>
+    <t>Corp / Village</t>
+  </si>
+  <si>
+    <t>Sale #</t>
+  </si>
+  <si>
+    <t>Sale Price</t>
+  </si>
+  <si>
+    <t>Yr Built</t>
+  </si>
+  <si>
+    <t>Fin Base</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Heat Type</t>
+  </si>
+  <si>
+    <t>FullBaths</t>
+  </si>
+  <si>
+    <t>HalfBaths</t>
+  </si>
+  <si>
+    <t>MHRE</t>
+  </si>
+  <si>
+    <t>Property Card</t>
+  </si>
+  <si>
+    <t>Parcel</t>
+  </si>
+  <si>
+    <t>Parcel Number</t>
+  </si>
+  <si>
+    <t>PropertyAddress</t>
+  </si>
+  <si>
+    <t>MailingAddress</t>
+  </si>
+  <si>
+    <t>LandUse</t>
+  </si>
+  <si>
+    <t>NumberOfStories</t>
+  </si>
+  <si>
+    <t>FinishedArea</t>
+  </si>
+  <si>
+    <t>NumberOfRooms</t>
+  </si>
+  <si>
+    <t>NumberOfBedrooms</t>
+  </si>
+  <si>
+    <t>NumberOfFullBaths</t>
+  </si>
+  <si>
+    <t>County</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +519,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,12 +554,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,268 +884,802 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ECFD78-2598-4A0B-8C75-BDF5ECE892F9}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
-        <v>55</v>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/Delaware Hocking mapping.xlsx
+++ b/docs/Delaware Hocking mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chads\Documents\CSCC\Data-Analytics-2019-Group-4-v2\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snayc\Documents\CSCC\Data-Analytics-2019-Group-4-v2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A49611F-491F-4796-A581-2A80C7441A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F077CC3E-7437-4228-ADB9-7BFEB2342A02}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22815" yWindow="3180" windowWidth="27420" windowHeight="15990" xr2:uid="{41D68BBF-A8C3-464A-A483-EC38D9A61C89}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="157">
   <si>
     <t>LegalDescription</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>County</t>
+  </si>
+  <si>
+    <t>Total Baths</t>
   </si>
 </sst>
 </file>
@@ -534,12 +537,18 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -554,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -566,10 +575,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ECFD78-2598-4A0B-8C75-BDF5ECE892F9}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -897,24 +910,25 @@
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -1123,35 +1137,38 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
@@ -1165,7 +1182,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
@@ -1173,7 +1190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -1183,7 +1200,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
@@ -1193,7 +1210,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
@@ -1203,7 +1220,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
@@ -1212,7 +1229,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -1222,7 +1239,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -1232,7 +1249,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
@@ -1242,7 +1259,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
@@ -1251,7 +1268,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1260,7 +1277,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -1269,7 +1286,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1279,7 +1296,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
